--- a/oa请假系统.xlsx
+++ b/oa请假系统.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="department" sheetId="2" r:id="rId2"/>
     <sheet name="role" sheetId="3" r:id="rId3"/>
     <sheet name=" leave_letter" sheetId="4" r:id="rId4"/>
+    <sheet name="notify" sheetId="5" r:id="rId5"/>
+    <sheet name="notify_info" sheetId="6" r:id="rId6"/>
+    <sheet name="业务" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,14 +227,117 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知详情id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知部门id</t>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr(管理员)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户角色信息跳转页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service返回LoginDto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将userid放入session中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断登录(每一步操作都需要进行验证)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将roleid放入session中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假条管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写假条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告栏显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -371,7 +477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -548,27 +654,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:A12"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,7 +698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -606,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -617,7 +725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,7 +736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -636,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -647,7 +755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -655,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -666,7 +774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -674,7 +782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -690,16 +798,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -723,7 +835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -731,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -739,7 +851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -747,7 +859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -763,16 +875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -788,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -796,7 +908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -804,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -812,7 +924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -820,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,24 +943,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B13" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -870,7 +983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -881,7 +994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -892,7 +1005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -903,7 +1016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -915,7 +1028,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -926,7 +1039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -937,7 +1050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -948,7 +1061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -959,7 +1072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -970,7 +1083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -981,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
@@ -998,4 +1111,274 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>